--- a/genshin/432128840180702055_2020-09-07_12-00-36.xlsx
+++ b/genshin/432128840180702055_2020-09-07_12-00-36.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:48:54</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11729166667</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3704338428</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-14 00:18:17</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44149.01269675926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:33:38</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44084.69002314815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:14:49</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44082.67695601852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:28:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44082.64491898148</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>3468296719</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:26:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44082.64366898148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>3466064733</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:26:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44082.64328703703</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1048,10 +1050,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:24:56</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44082.64231481482</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1119,10 +1119,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:23:50</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44082.64155092592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1190,10 +1188,8 @@
           <t>3468297064</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:24:46</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44082.55886574074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>3468297064</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:07:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44082.54704861111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1336,10 +1330,8 @@
           <t>3468297064</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-08 12:18:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44082.51287037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>3465387117</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-08 12:07:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44082.50517361111</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1490,10 +1480,8 @@
           <t>3468297064</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:46:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44082.44921296297</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1561,10 +1549,8 @@
           <t>3465387117</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:46:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44082.4489699074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1632,10 +1618,8 @@
           <t>3466063361</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:45:21</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44082.44815972223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1703,10 +1687,8 @@
           <t>3468289143</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-08 07:41:06</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44082.32020833333</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1778,10 +1760,8 @@
           <t>3468297064</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-08 07:39:17</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44082.31894675926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>3468296719</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-08 07:38:33</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44082.3184375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-07 23:24:09</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44081.97510416667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2007,10 +1983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-07 19:39:04</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44081.8187962963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2078,10 +2052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:48:53</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44081.74228009259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2149,10 +2121,8 @@
           <t>3466234610</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:29:59</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44081.72915509259</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:29:48</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44081.72902777778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:18:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44081.72136574074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2358,10 +2324,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:17:35</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44081.72054398148</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2425,10 +2389,8 @@
           <t>3465387117</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:31:21</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44081.6884375</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2504,10 +2466,8 @@
           <t>3466064733</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:28:52</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44081.68671296296</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2567,10 +2527,8 @@
           <t>3466063361</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:27:10</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44081.68553240741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2642,10 +2600,8 @@
           <t>3465831201</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:19:02</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44081.67988425926</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2713,10 +2669,8 @@
           <t>3465696952</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:18:36</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44081.67958333333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2784,10 +2738,8 @@
           <t>3465608011</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:16:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44081.67825231481</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2855,10 +2807,8 @@
           <t>3465533630</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:16:05</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44081.67783564814</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2926,10 +2876,8 @@
           <t>3465409090</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:15:39</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44081.67753472222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2997,10 +2945,8 @@
           <t>3465387117</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:14:18</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44081.67659722222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3068,10 +3014,8 @@
           <t>3465383656</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:13:52</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44081.6762962963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3139,10 +3083,8 @@
           <t>3465383504</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:13:28</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44081.67601851852</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3210,10 +3152,8 @@
           <t>3465379629</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:12:59</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44081.67568287037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3281,10 +3221,8 @@
           <t>3465385162</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:12:32</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44081.67537037037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3352,10 +3290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:04:12</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44081.66958333334</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3423,10 +3359,8 @@
           <t>3465963985</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:45:12</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44081.65638888889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3494,10 +3428,8 @@
           <t>3465952409</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:37:54</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44081.65131944444</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3565,10 +3497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:30:14</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44081.64599537037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3641,10 +3571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:03:06</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44081.62715277778</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3716,10 +3644,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:44:29</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44081.61422453704</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3795,10 +3721,8 @@
           <t>3465831201</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:41:05</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44081.61186342593</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3875,10 +3799,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:39:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44081.61074074074</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3946,10 +3868,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:36:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44081.60854166667</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4017,10 +3937,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:35:48</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44081.60819444444</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4088,10 +4006,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:35:03</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44081.60767361111</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4159,10 +4075,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:32:53</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44081.60616898148</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4231,10 +4145,8 @@
           <t>3465753885</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:07:56</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44081.5888425926</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4310,10 +4222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:03:00</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44081.58541666667</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4389,10 +4299,8 @@
           <t>3465707025</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:46:11</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44081.57373842593</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4456,10 +4364,8 @@
           <t>3465696952</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:45:17</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44081.57311342593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4527,10 +4433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:44:49</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44081.57278935185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4598,10 +4502,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:44:23</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44081.57248842593</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4677,10 +4579,8 @@
           <t>3465681837</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:39:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44081.56907407408</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4756,10 +4656,8 @@
           <t>3465400340</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:37:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44081.56798611111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4831,10 +4729,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:32:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44081.56442129629</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4911,10 +4807,8 @@
           <t>3465661618</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:31:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44081.56387731482</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4982,10 +4876,8 @@
           <t>3465611203</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:30:56</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44081.56314814815</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5053,10 +4945,8 @@
           <t>3465523184</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:30:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44081.56296296296</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5124,10 +5014,8 @@
           <t>3465526673</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:30:05</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44081.56255787037</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5195,10 +5083,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:29:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44081.56208333333</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5266,10 +5152,8 @@
           <t>3465379423</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:28:40</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44081.56157407408</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5337,10 +5221,8 @@
           <t>3465661618</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:28:26</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44081.56141203704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5416,10 +5298,8 @@
           <t>3465382804</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:27:25</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44081.56070601852</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5487,10 +5367,8 @@
           <t>3465660093</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:26:53</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44081.56033564815</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
@@ -5566,10 +5444,8 @@
           <t>3465378866</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:25:50</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44081.55960648148</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5637,10 +5513,8 @@
           <t>3465377143</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:21:51</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44081.55684027778</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5708,10 +5582,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:21:23</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44081.5565162037</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
@@ -5779,10 +5651,8 @@
           <t>3465553432</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:20:44</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44081.55606481482</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5846,10 +5716,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:19:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44081.5549537037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5925,10 +5793,8 @@
           <t>3465622078</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:17:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44081.55407407408</v>
       </c>
       <c r="I76" t="n">
         <v>4</v>
@@ -5992,10 +5858,8 @@
           <t>3465470033</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:14:35</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44081.55179398148</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6071,10 +5935,8 @@
           <t>3465458264</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:14:06</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44081.55145833334</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6138,10 +6000,8 @@
           <t>3465374269</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:13:56</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44081.55134259259</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6217,10 +6077,8 @@
           <t>3465608011</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:13:42</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44081.55118055556</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6288,10 +6146,8 @@
           <t>3465611203</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:13:00</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44081.55069444444</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6359,10 +6215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:12:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44081.55018518519</v>
       </c>
       <c r="I82" t="n">
         <v>6</v>
@@ -6430,10 +6284,8 @@
           <t>3465390053</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:10:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44081.54873842592</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6497,10 +6349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44081.54844907407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6564,10 +6414,8 @@
           <t>3465428077</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:43</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44081.54841435186</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6631,10 +6479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:35</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44081.54832175926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6710,10 +6556,8 @@
           <t>3465473102</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:33</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44081.54829861111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6777,10 +6621,8 @@
           <t>3465553432</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:20</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44081.54814814815</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6844,10 +6686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:08:19</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44081.54744212963</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6923,10 +6763,8 @@
           <t>3465589608</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:53</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44081.54644675926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7002,10 +6840,8 @@
           <t>3465470033</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:38</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44081.54627314815</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7065,10 +6901,8 @@
           <t>3465470033</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:06</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44081.54590277778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7129,10 +6963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:47</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44081.54568287037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7200,10 +7032,8 @@
           <t>3465376254</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:09</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44081.54524305555</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7271,10 +7101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:07</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44081.54521990741</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7346,10 +7174,8 @@
           <t>3465470033</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:01:26</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44081.54266203703</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7425,10 +7251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:00:33</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44081.54204861111</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7496,10 +7320,8 @@
           <t>3465553432</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:56:44</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44081.53939814815</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7563,10 +7385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:55:14</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44081.53835648148</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7634,10 +7454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:30</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44081.53784722222</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7709,10 +7527,8 @@
           <t>3465533630</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:55</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44081.5353587963</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7776,10 +7592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:24</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44081.535</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7856,10 +7670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:12</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44081.53486111111</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7919,10 +7731,8 @@
           <t>3465528818</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44081.53372685185</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7986,10 +7796,8 @@
           <t>3465523184</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:59</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44081.53332175926</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8053,10 +7861,8 @@
           <t>3465526673</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44081.53259259259</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8132,10 +7938,8 @@
           <t>3465371935</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:53</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44081.53255787037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8203,10 +8007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:18</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44081.53215277778</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8270,10 +8072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:45:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44081.53152777778</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8345,10 +8145,8 @@
           <t>3465376254</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44081.53107638889</v>
       </c>
       <c r="I110" t="n">
         <v>19</v>
@@ -8424,10 +8222,8 @@
           <t>3465510539</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:43:46</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44081.53039351852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8503,10 +8299,8 @@
           <t>3465511278</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:42:31</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44081.52952546296</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8583,10 +8377,8 @@
           <t>3465510539</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:54</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44081.52909722222</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8654,10 +8446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:15</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44081.52864583334</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8733,10 +8523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44081.52851851852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8812,10 +8600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:38:23</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44081.5266550926</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8879,10 +8665,8 @@
           <t>3465488639</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:38:16</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44081.52657407407</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8946,10 +8730,8 @@
           <t>3465485412</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44081.52462962963</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9013,10 +8795,8 @@
           <t>3465376254</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:01</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44081.52431712963</v>
       </c>
       <c r="I119" t="n">
         <v>11</v>
@@ -9092,10 +8872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:12</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44081.52375</v>
       </c>
       <c r="I120" t="n">
         <v>5</v>
@@ -9163,10 +8941,8 @@
           <t>3465473102</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:27</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44081.52322916667</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9230,10 +9006,8 @@
           <t>3465470033</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:45</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44081.52135416667</v>
       </c>
       <c r="I122" t="n">
         <v>14</v>
@@ -9305,10 +9079,8 @@
           <t>3465458264</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:14</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44081.52030092593</v>
       </c>
       <c r="I123" t="n">
         <v>33</v>
@@ -9377,10 +9149,8 @@
           <t>3465371935</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:49</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44081.51931712963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9448,10 +9218,8 @@
           <t>3465443829</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44081.51760416666</v>
       </c>
       <c r="I125" t="n">
         <v>7</v>
@@ -9515,10 +9283,8 @@
           <t>3465380110</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:55</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44081.51730324074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9590,10 +9356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44081.51671296296</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9669,10 +9433,8 @@
           <t>3465439353</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:00</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44081.51666666667</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9736,10 +9498,8 @@
           <t>3465439053</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:45</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44081.51649305555</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9815,10 +9575,8 @@
           <t>3465380110</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:25</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44081.51626157408</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9890,10 +9648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:13</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44081.51612268519</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9961,10 +9717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44081.5158912037</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10028,10 +9782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:28</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44081.51560185185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10099,10 +9851,8 @@
           <t>3465440396</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:18</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44081.51548611111</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10178,10 +9928,8 @@
           <t>3465371935</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:39</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44081.51503472222</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10245,10 +9993,8 @@
           <t>3465432304</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:30</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44081.51493055555</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10321,10 +10067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:18</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44081.51479166667</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10400,10 +10144,8 @@
           <t>3465428077</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:20:14</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44081.51405092593</v>
       </c>
       <c r="I138" t="n">
         <v>36</v>
@@ -10479,10 +10221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:38</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44081.51155092593</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10550,10 +10290,8 @@
           <t>3465416161</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:00</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44081.51111111111</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10629,10 +10367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:56</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44081.51106481482</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10705,10 +10441,8 @@
           <t>3465409090</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:57</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44081.51038194444</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10784,10 +10518,8 @@
           <t>3465412224</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:49</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44081.51028935185</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10859,10 +10591,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:12</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44081.50986111111</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10934,10 +10664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:01</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44081.50973379629</v>
       </c>
       <c r="I145" t="n">
         <v>56</v>
@@ -11013,10 +10741,8 @@
           <t>3465399535</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44081.5084375</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11092,10 +10818,8 @@
           <t>3465400774</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44081.50828703704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11167,10 +10891,8 @@
           <t>3465400774</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:57</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44081.50760416667</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11234,10 +10956,8 @@
           <t>3465398225</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44081.50755787037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11309,10 +11029,8 @@
           <t>3465394645</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:48</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44081.5075</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11384,10 +11102,8 @@
           <t>3465394473</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:38</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44081.50738425926</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11459,10 +11175,8 @@
           <t>3465400340</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44081.50729166667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11534,10 +11248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:16</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44081.50712962963</v>
       </c>
       <c r="I153" t="n">
         <v>54</v>
@@ -11609,10 +11321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:13</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44081.50709490741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11676,10 +11386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44081.50696759259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11743,10 +11451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:55</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44081.50688657408</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11814,10 +11520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:59</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44081.50623842593</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11889,10 +11593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:55</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44081.50619212963</v>
       </c>
       <c r="I158" t="n">
         <v>182</v>
@@ -11968,10 +11670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:41</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44081.50533564815</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12047,10 +11747,8 @@
           <t>3465387188</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44081.50521990741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12127,10 +11825,8 @@
           <t>3465387117</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:27</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44081.50517361111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12206,10 +11902,8 @@
           <t>3465384622</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44081.50505787037</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12285,10 +11979,8 @@
           <t>3465390053</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:29</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44081.50450231481</v>
       </c>
       <c r="I163" t="n">
         <v>109</v>
@@ -12360,10 +12052,8 @@
           <t>3465383656</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:21</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44081.50440972222</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12435,10 +12125,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:18</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44081.504375</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12510,10 +12198,8 @@
           <t>3465383509</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12581,10 +12267,8 @@
           <t>3465383504</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12660,10 +12344,8 @@
           <t>3465379629</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:06</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44081.50423611111</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12735,10 +12417,8 @@
           <t>3465383268</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:58</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44081.50414351852</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12815,10 +12495,8 @@
           <t>3465379423</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:54</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44081.50409722222</v>
       </c>
       <c r="I170" t="n">
         <v>10</v>
@@ -12894,10 +12572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44081.50402777778</v>
       </c>
       <c r="I171" t="n">
         <v>13</v>
@@ -12969,10 +12645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44081.5039699074</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -13044,10 +12718,8 @@
           <t>3465385162</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:38</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44081.50391203703</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -13119,10 +12791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:36</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44081.50388888889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13190,10 +12860,8 @@
           <t>3465382804</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:30</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44081.50381944444</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13258,10 +12926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:28</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44081.5037962963</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13325,10 +12991,8 @@
           <t>3465378866</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:21</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44081.50371527778</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13400,10 +13064,8 @@
           <t>3465378791</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:16</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44081.5036574074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13467,10 +13129,8 @@
           <t>3465378612</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:06</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44081.50354166667</v>
       </c>
       <c r="I179" t="n">
         <v>10</v>
@@ -13538,10 +13198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44081.50341435185</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13613,10 +13271,8 @@
           <t>3465374269</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:44</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44081.50328703703</v>
       </c>
       <c r="I181" t="n">
         <v>10</v>
@@ -13684,10 +13340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:40</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44081.50324074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13759,10 +13413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:11</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44081.5029050926</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13830,10 +13482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44081.50287037037</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13910,10 +13560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:04:03</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44081.5028125</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13989,10 +13637,8 @@
           <t>3465377428</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:54</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44081.50270833333</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14060,10 +13706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:45</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44081.50260416666</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14139,10 +13783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:43</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44081.50258101852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14206,10 +13848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:42</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44081.50256944444</v>
       </c>
       <c r="I189" t="n">
         <v>197</v>
@@ -14277,10 +13917,8 @@
           <t>3465377143</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:37</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44081.50251157407</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14356,10 +13994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:35</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44081.50248842593</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14431,10 +14067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:33</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44081.50246527778</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14502,10 +14136,8 @@
           <t>3465380860</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:32</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44081.5024537037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14573,10 +14205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:16</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44081.50226851852</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14644,10 +14274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:09</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44081.5021875</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14723,10 +14351,8 @@
           <t>3465372534</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:02</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44081.50210648148</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14802,10 +14428,8 @@
           <t>3465376521</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:03:00</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44081.50208333333</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14877,10 +14501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:57</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44081.50204861111</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14956,10 +14578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:54</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44081.50201388889</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15036,10 +14656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44081.50197916666</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15115,10 +14733,8 @@
           <t>3465380110</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:47</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44081.50193287037</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15190,10 +14806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:46</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44081.50192129629</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15257,10 +14871,8 @@
           <t>3465376254</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:46</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44081.50192129629</v>
       </c>
       <c r="I203" t="n">
         <v>16</v>
@@ -15328,10 +14940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44081.50184027778</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15407,10 +15017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44081.5018287037</v>
       </c>
       <c r="I205" t="n">
         <v>189</v>
@@ -15486,10 +15094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:35</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44081.50179398148</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15553,10 +15159,8 @@
           <t>3465369895</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:35</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44081.50179398148</v>
       </c>
       <c r="I207" t="n">
         <v>41</v>
@@ -15624,10 +15228,8 @@
           <t>3465376068</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:35</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44081.50179398148</v>
       </c>
       <c r="I208" t="n">
         <v>66</v>
@@ -15691,10 +15293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:32</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44081.50175925926</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15770,10 +15370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:30</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44081.50173611111</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15845,10 +15443,8 @@
           <t>3465371935</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:28</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44081.50171296296</v>
       </c>
       <c r="I211" t="n">
         <v>168</v>
@@ -15916,10 +15512,8 @@
           <t>3465375891</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:25</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44081.50167824074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15997,10 +15591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:21</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44081.50163194445</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16064,10 +15656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:19</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44081.50160879629</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16135,10 +15725,8 @@
           <t>3465375813</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:19</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44081.50160879629</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16202,10 +15790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44081.5015625</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16274,10 +15860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:13</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44081.50153935186</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16353,10 +15937,8 @@
           <t>3465375540</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44081.50143518519</v>
       </c>
       <c r="I218" t="n">
         <v>38</v>
@@ -16432,10 +16014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:02:02</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44081.50141203704</v>
       </c>
       <c r="I219" t="n">
         <v>270</v>
@@ -16503,10 +16083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:56</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44081.50134259259</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16578,10 +16156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:51</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44081.50128472222</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16654,10 +16230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:50</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44081.50127314815</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16733,10 +16307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:45</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44081.50121527778</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16804,10 +16376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:43</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44081.50119212963</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16879,10 +16449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:41</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44081.50116898148</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16958,10 +16526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44081.50114583333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17037,10 +16603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:36</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44081.50111111111</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17112,10 +16676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44081.50103009259</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17187,10 +16749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:29</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44081.50103009259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17254,10 +16814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:22</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44081.50094907408</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17325,10 +16883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:21</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44081.5009375</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17396,10 +16952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:17</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44081.5008912037</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17463,10 +17017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44081.50086805555</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17542,10 +17094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:09</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44081.50079861111</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17617,10 +17167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:08</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44081.50078703704</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17692,10 +17240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:08</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44081.50078703704</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17759,10 +17305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:07</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44081.50077546296</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17838,10 +17382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:04</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44081.50074074074</v>
       </c>
       <c r="I238" t="n">
         <v>1115</v>
@@ -17909,10 +17451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:02</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44081.50071759259</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -17988,10 +17528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:02</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44081.50071759259</v>
       </c>
       <c r="I240" t="n">
         <v>416</v>
@@ -18067,10 +17605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:01:00</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44081.50069444445</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18130,10 +17666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:58</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44081.50067129629</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18203,10 +17737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:54</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44081.500625</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18278,10 +17810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:54</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44081.500625</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18345,10 +17875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44081.50061342592</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18421,10 +17949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:53</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44081.50061342592</v>
       </c>
       <c r="I246" t="n">
         <v>46</v>
@@ -18488,10 +18014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44081.50061342592</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18568,10 +18092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44081.50061342592</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18635,10 +18157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:52</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44081.50060185185</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18706,10 +18226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:52</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44081.50060185185</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18777,10 +18295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:51</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44081.50059027778</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18852,10 +18368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:00:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44081.50054398148</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
